--- a/app/Expenses.xlsx
+++ b/app/Expenses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,28 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>431</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gadgets &amp; Electronics</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apple Watch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
         </is>
       </c>
     </row>
@@ -601,12 +623,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5100</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
+        <v>10100</v>
+      </c>
+      <c r="B2" t="n">
+        <v>22100</v>
       </c>
     </row>
   </sheetData>
